--- a/Data_Structures_&_Algo.xlsx
+++ b/Data_Structures_&_Algo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunxie/Documents/github/Knowledge_WareHouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10A2F4DC-5F13-1840-AC64-A114589B5649}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B4166-2436-474C-AEF4-E574719B5577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{537F64A3-3D08-E34E-A150-AF479E65DA70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{537F64A3-3D08-E34E-A150-AF479E65DA70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="1" r:id="rId1"/>
+    <sheet name="Trees" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,6 +29,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Algorithm:</t>
+  </si>
+  <si>
+    <t>Euler Path Algo</t>
+  </si>
+  <si>
+    <t>BFS Algo</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algo</t>
+  </si>
+  <si>
+    <t>Determines the distance and the shortest</t>
+  </si>
+  <si>
+    <t>Finding the distance between vertices in a graph and the shortest path between vertices in a weighted graph</t>
+  </si>
+  <si>
+    <t>Find Euler Path | Circuit</t>
+  </si>
+  <si>
+    <t>BFS Algo for construction spinning tree</t>
+  </si>
+  <si>
+    <t>Prim's Algo</t>
+  </si>
+  <si>
+    <t>Building minimal | Maximal Spanning Tree</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,12 +413,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C21CAE-8EA8-0549-9BF9-8651C726C06E}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24EF320-4E58-A146-8CB8-A237CB1EEF41}">
+  <dimension ref="A3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>